--- a/enderecos_empresas.xlsx
+++ b/enderecos_empresas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,74 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amorim Eco</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cabo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21345678</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Amorim Eco</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cabo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12345676758</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amorim Eco</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>cabo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Amorim Eco</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>cabo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/enderecos_empresas.xlsx
+++ b/enderecos_empresas.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +47,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +72,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,10 +435,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="A2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -453,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,177 +473,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mauqina</t>
+          <t>cabo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1222222</t>
+          <t>21342434234</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amorim Eco</t>
+          <t>Green Solutions</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>maquina</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27665</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Amorim Eco</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>camera</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27665</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Green Solutions</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>camera</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2222222</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Green Solutions</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>412-7215</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Green Solutions</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>aff</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>737373</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Green Solutions</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>camera</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Amorim Eco</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>cabo</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>21345678</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Amorim Eco</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>cabo</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>12345676758</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Amorim Eco</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>cabo</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>123123123</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Amorim Eco</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>cabo</t>
+          <t>impressora</t>
         </is>
       </c>
     </row>
